--- a/yokai_inventory_scraper/20250801-在那裡-每日商品補貨明細表.xlsx
+++ b/yokai_inventory_scraper/20250801-在那裡-每日商品補貨明細表.xlsx
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="H2" s="12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2" s="7" t="n"/>
       <c r="J2" s="7" t="n"/>
@@ -953,7 +953,7 @@
       </c>
       <c r="B4" s="25" t="inlineStr">
         <is>
-          <t>一風堂博多とんこつラーメン</t>
+          <t>IPPUDO_Spicy _TanTan</t>
         </is>
       </c>
       <c r="C4" s="39" t="n"/>
@@ -962,17 +962,17 @@
       </c>
       <c r="E4" s="24" t="inlineStr">
         <is>
-          <t>桃園市政府美食街-459</t>
+          <t>台北天文館 左邊-683</t>
         </is>
       </c>
       <c r="F4" s="25" t="inlineStr">
         <is>
-          <t>一風堂博多とんこつラーメン</t>
+          <t>IPPUDO_Spicy _TanTan</t>
         </is>
       </c>
       <c r="G4" s="39" t="n"/>
       <c r="H4" s="21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7" t="n"/>
       <c r="J4" s="7" t="n"/>
@@ -997,7 +997,7 @@
       <c r="A5" s="40" t="n"/>
       <c r="B5" s="25" t="inlineStr">
         <is>
-          <t>小卷米粉</t>
+          <t>一風堂博多とんこつラーメン</t>
         </is>
       </c>
       <c r="C5" s="39" t="n"/>
@@ -1007,12 +1007,12 @@
       <c r="E5" s="40" t="n"/>
       <c r="F5" s="25" t="inlineStr">
         <is>
-          <t>雙醬鮭魚筆尖麵</t>
+          <t>一風堂橫濱家系拉麵</t>
         </is>
       </c>
       <c r="G5" s="39" t="n"/>
       <c r="H5" s="21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7" t="n"/>
       <c r="J5" s="7" t="n"/>
@@ -1037,22 +1037,22 @@
       <c r="A6" s="40" t="n"/>
       <c r="B6" s="25" t="inlineStr">
         <is>
-          <t>Ippudo Spicy Plant</t>
+          <t>一風堂橫濱家系拉麵</t>
         </is>
       </c>
       <c r="C6" s="39" t="n"/>
       <c r="D6" s="21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="40" t="n"/>
       <c r="F6" s="25" t="inlineStr">
         <is>
-          <t>緹魚鮮蝦青醬松子義大利麵</t>
+          <t>小卷米粉</t>
         </is>
       </c>
       <c r="G6" s="39" t="n"/>
       <c r="H6" s="21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7" t="n"/>
       <c r="J6" s="7" t="n"/>
@@ -1077,7 +1077,7 @@
       <c r="A7" s="40" t="n"/>
       <c r="B7" s="25" t="inlineStr">
         <is>
-          <t>一風堂橫濱家系拉麵</t>
+          <t>燕三条 Se-Abura</t>
         </is>
       </c>
       <c r="C7" s="39" t="n"/>
@@ -1087,7 +1087,7 @@
       <c r="E7" s="40" t="n"/>
       <c r="F7" s="25" t="inlineStr">
         <is>
-          <t>小卷米粉</t>
+          <t>雙醬鮭魚筆尖麵</t>
         </is>
       </c>
       <c r="G7" s="39" t="n"/>
@@ -1125,9 +1125,15 @@
         <v>2</v>
       </c>
       <c r="E8" s="40" t="n"/>
-      <c r="F8" s="25" t="n"/>
+      <c r="F8" s="25" t="inlineStr">
+        <is>
+          <t>Ippudo Spicy Plant</t>
+        </is>
+      </c>
       <c r="G8" s="39" t="n"/>
-      <c r="H8" s="21" t="n"/>
+      <c r="H8" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="I8" s="7" t="n"/>
       <c r="J8" s="7" t="n"/>
       <c r="K8" s="7" t="n"/>
@@ -1159,9 +1165,15 @@
         <v>2</v>
       </c>
       <c r="E9" s="40" t="n"/>
-      <c r="F9" s="25" t="n"/>
+      <c r="F9" s="25" t="inlineStr">
+        <is>
+          <t>IPPUDO_Plant-Base_Ramen</t>
+        </is>
+      </c>
       <c r="G9" s="39" t="n"/>
-      <c r="H9" s="21" t="n"/>
+      <c r="H9" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="I9" s="7" t="n"/>
       <c r="J9" s="7" t="n"/>
       <c r="K9" s="7" t="n"/>
@@ -1183,15 +1195,9 @@
     </row>
     <row r="10" ht="15" customHeight="1" s="32">
       <c r="A10" s="40" t="n"/>
-      <c r="B10" s="25" t="inlineStr">
-        <is>
-          <t>IPPUDO_Plant-Base_Ramen</t>
-        </is>
-      </c>
+      <c r="B10" s="25" t="n"/>
       <c r="C10" s="39" t="n"/>
-      <c r="D10" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="D10" s="21" t="n"/>
       <c r="E10" s="40" t="n"/>
       <c r="F10" s="25" t="n"/>
       <c r="G10" s="39" t="n"/>
@@ -1217,15 +1223,9 @@
     </row>
     <row r="11" ht="15" customHeight="1" s="32">
       <c r="A11" s="41" t="n"/>
-      <c r="B11" s="25" t="inlineStr">
-        <is>
-          <t>早安小雞鮮乳奶黃包</t>
-        </is>
-      </c>
+      <c r="B11" s="25" t="n"/>
       <c r="C11" s="39" t="n"/>
-      <c r="D11" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="D11" s="21" t="n"/>
       <c r="E11" s="41" t="n"/>
       <c r="F11" s="25" t="n"/>
       <c r="G11" s="39" t="n"/>
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="D12" s="21" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E12" s="24" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="F12" s="25" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G12" s="25" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="H12" s="21" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I12" s="7" t="n"/>
       <c r="J12" s="7" t="n"/>
@@ -1446,14 +1446,34 @@
       <c r="Z16" s="17" t="n"/>
     </row>
     <row r="17" ht="15" customHeight="1" s="32">
-      <c r="A17" s="24" t="n"/>
-      <c r="B17" s="25" t="n"/>
+      <c r="A17" s="24" t="inlineStr">
+        <is>
+          <t>台北榮總急診室-488</t>
+        </is>
+      </c>
+      <c r="B17" s="25" t="inlineStr">
+        <is>
+          <t>IPPUDO_Spicy _TanTan</t>
+        </is>
+      </c>
       <c r="C17" s="39" t="n"/>
-      <c r="D17" s="21" t="n"/>
-      <c r="E17" s="24" t="n"/>
-      <c r="F17" s="25" t="n"/>
+      <c r="D17" s="21" t="n">
+        <v>8</v>
+      </c>
+      <c r="E17" s="24" t="inlineStr">
+        <is>
+          <t>夾腳拖的家-479</t>
+        </is>
+      </c>
+      <c r="F17" s="25" t="inlineStr">
+        <is>
+          <t>一風堂博多とんこつラーメン</t>
+        </is>
+      </c>
       <c r="G17" s="39" t="n"/>
-      <c r="H17" s="21" t="n"/>
+      <c r="H17" s="21" t="n">
+        <v>17</v>
+      </c>
       <c r="I17" s="7" t="n"/>
       <c r="J17" s="7" t="n"/>
       <c r="K17" s="7" t="n"/>
@@ -1475,13 +1495,25 @@
     </row>
     <row r="18" ht="15" customHeight="1" s="32">
       <c r="A18" s="40" t="n"/>
-      <c r="B18" s="25" t="n"/>
+      <c r="B18" s="25" t="inlineStr">
+        <is>
+          <t>一風堂博多とんこつラーメン</t>
+        </is>
+      </c>
       <c r="C18" s="39" t="n"/>
-      <c r="D18" s="21" t="n"/>
+      <c r="D18" s="21" t="n">
+        <v>7</v>
+      </c>
       <c r="E18" s="40" t="n"/>
-      <c r="F18" s="25" t="n"/>
+      <c r="F18" s="25" t="inlineStr">
+        <is>
+          <t>一風堂橫濱家系拉麵</t>
+        </is>
+      </c>
       <c r="G18" s="39" t="n"/>
-      <c r="H18" s="21" t="n"/>
+      <c r="H18" s="21" t="n">
+        <v>16</v>
+      </c>
       <c r="I18" s="7" t="n"/>
       <c r="J18" s="7" t="n"/>
       <c r="K18" s="7" t="n"/>
@@ -1503,13 +1535,25 @@
     </row>
     <row r="19" ht="15" customHeight="1" s="32">
       <c r="A19" s="40" t="n"/>
-      <c r="B19" s="25" t="n"/>
+      <c r="B19" s="25" t="inlineStr">
+        <is>
+          <t>IPPUDO_Plant-Base_Ramen</t>
+        </is>
+      </c>
       <c r="C19" s="39" t="n"/>
-      <c r="D19" s="21" t="n"/>
+      <c r="D19" s="21" t="n">
+        <v>2</v>
+      </c>
       <c r="E19" s="40" t="n"/>
-      <c r="F19" s="25" t="n"/>
+      <c r="F19" s="25" t="inlineStr">
+        <is>
+          <t>Ippudo Spicy Plant</t>
+        </is>
+      </c>
       <c r="G19" s="39" t="n"/>
-      <c r="H19" s="21" t="n"/>
+      <c r="H19" s="21" t="n">
+        <v>2</v>
+      </c>
       <c r="I19" s="7" t="n"/>
       <c r="J19" s="7" t="n"/>
       <c r="K19" s="7" t="n"/>
@@ -1531,13 +1575,25 @@
     </row>
     <row r="20" ht="15" customHeight="1" s="32">
       <c r="A20" s="40" t="n"/>
-      <c r="B20" s="25" t="n"/>
+      <c r="B20" s="25" t="inlineStr">
+        <is>
+          <t>小卷米粉</t>
+        </is>
+      </c>
       <c r="C20" s="39" t="n"/>
-      <c r="D20" s="21" t="n"/>
+      <c r="D20" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="E20" s="40" t="n"/>
-      <c r="F20" s="25" t="n"/>
+      <c r="F20" s="25" t="inlineStr">
+        <is>
+          <t>IPPUDO_Plant-Base_Ramen</t>
+        </is>
+      </c>
       <c r="G20" s="39" t="n"/>
-      <c r="H20" s="21" t="n"/>
+      <c r="H20" s="21" t="n">
+        <v>2</v>
+      </c>
       <c r="I20" s="7" t="n"/>
       <c r="J20" s="7" t="n"/>
       <c r="K20" s="7" t="n"/>
@@ -1559,13 +1615,25 @@
     </row>
     <row r="21" ht="15" customHeight="1" s="32">
       <c r="A21" s="40" t="n"/>
-      <c r="B21" s="25" t="n"/>
+      <c r="B21" s="25" t="inlineStr">
+        <is>
+          <t>燕三条 Se-Abura</t>
+        </is>
+      </c>
       <c r="C21" s="39" t="n"/>
-      <c r="D21" s="21" t="n"/>
+      <c r="D21" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="E21" s="40" t="n"/>
-      <c r="F21" s="25" t="n"/>
+      <c r="F21" s="25" t="inlineStr">
+        <is>
+          <t>小卷米粉</t>
+        </is>
+      </c>
       <c r="G21" s="39" t="n"/>
-      <c r="H21" s="21" t="n"/>
+      <c r="H21" s="21" t="n">
+        <v>2</v>
+      </c>
       <c r="I21" s="7" t="n"/>
       <c r="J21" s="7" t="n"/>
       <c r="K21" s="7" t="n"/>
@@ -1591,9 +1659,15 @@
       <c r="C22" s="39" t="n"/>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="40" t="n"/>
-      <c r="F22" s="25" t="n"/>
+      <c r="F22" s="25" t="inlineStr">
+        <is>
+          <t>燕三条 Se-Abura</t>
+        </is>
+      </c>
       <c r="G22" s="39" t="n"/>
-      <c r="H22" s="21" t="n"/>
+      <c r="H22" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="I22" s="7" t="n"/>
       <c r="J22" s="7" t="n"/>
       <c r="K22" s="7" t="n"/>
@@ -1619,9 +1693,15 @@
       <c r="C23" s="39" t="n"/>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="40" t="n"/>
-      <c r="F23" s="25" t="n"/>
+      <c r="F23" s="25" t="inlineStr">
+        <is>
+          <t>雙醬鮭魚筆尖麵</t>
+        </is>
+      </c>
       <c r="G23" s="39" t="n"/>
-      <c r="H23" s="21" t="n"/>
+      <c r="H23" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="I23" s="7" t="n"/>
       <c r="J23" s="7" t="n"/>
       <c r="K23" s="7" t="n"/>
@@ -1675,30 +1755,32 @@
           <t>機內庫存</t>
         </is>
       </c>
-      <c r="B25" s="25" t="n"/>
+      <c r="B25" s="25" t="n">
+        <v>31</v>
+      </c>
       <c r="C25" s="25" t="inlineStr">
         <is>
           <t>補貨總數</t>
         </is>
       </c>
-      <c r="D25" s="21">
-        <f>50-B25+SUM(D17:D24)</f>
-        <v/>
+      <c r="D25" s="21" t="n">
+        <v>19</v>
       </c>
       <c r="E25" s="24" t="inlineStr">
         <is>
           <t>機內庫存</t>
         </is>
       </c>
-      <c r="F25" s="25" t="n"/>
+      <c r="F25" s="25" t="n">
+        <v>9</v>
+      </c>
       <c r="G25" s="25" t="inlineStr">
         <is>
           <t>補貨總數</t>
         </is>
       </c>
-      <c r="H25" s="21">
-        <f>50-F25+SUM(H17:H24)</f>
-        <v/>
+      <c r="H25" s="21" t="n">
+        <v>41</v>
       </c>
       <c r="I25" s="7" t="n"/>
       <c r="J25" s="7" t="n"/>

--- a/yokai_inventory_scraper/20250801-在那裡-每日商品補貨明細表.xlsx
+++ b/yokai_inventory_scraper/20250801-在那裡-每日商品補貨明細表.xlsx
@@ -953,12 +953,12 @@
       </c>
       <c r="B4" s="25" t="inlineStr">
         <is>
-          <t>IPPUDO_Spicy _TanTan</t>
+          <t>一風堂博多とんこつラーメン</t>
         </is>
       </c>
       <c r="C4" s="39" t="n"/>
       <c r="D4" s="21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" s="24" t="inlineStr">
         <is>
@@ -967,12 +967,12 @@
       </c>
       <c r="F4" s="25" t="inlineStr">
         <is>
-          <t>IPPUDO_Spicy _TanTan</t>
+          <t>雙醬鮭魚筆尖麵</t>
         </is>
       </c>
       <c r="G4" s="39" t="n"/>
       <c r="H4" s="21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7" t="n"/>
       <c r="J4" s="7" t="n"/>
@@ -997,17 +997,17 @@
       <c r="A5" s="40" t="n"/>
       <c r="B5" s="25" t="inlineStr">
         <is>
-          <t>一風堂博多とんこつラーメン</t>
+          <t>緹魚鮮蝦青醬松子義大利麵</t>
         </is>
       </c>
       <c r="C5" s="39" t="n"/>
       <c r="D5" s="21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="40" t="n"/>
       <c r="F5" s="25" t="inlineStr">
         <is>
-          <t>一風堂橫濱家系拉麵</t>
+          <t>小卷米粉</t>
         </is>
       </c>
       <c r="G5" s="39" t="n"/>
@@ -1042,17 +1042,17 @@
       </c>
       <c r="C6" s="39" t="n"/>
       <c r="D6" s="21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" s="40" t="n"/>
       <c r="F6" s="25" t="inlineStr">
         <is>
-          <t>小卷米粉</t>
+          <t>IPPUDO_Spicy _TanTan</t>
         </is>
       </c>
       <c r="G6" s="39" t="n"/>
       <c r="H6" s="21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7" t="n"/>
       <c r="J6" s="7" t="n"/>
@@ -1077,7 +1077,7 @@
       <c r="A7" s="40" t="n"/>
       <c r="B7" s="25" t="inlineStr">
         <is>
-          <t>燕三条 Se-Abura</t>
+          <t>雙醬鮭魚筆尖麵</t>
         </is>
       </c>
       <c r="C7" s="39" t="n"/>
@@ -1087,12 +1087,12 @@
       <c r="E7" s="40" t="n"/>
       <c r="F7" s="25" t="inlineStr">
         <is>
-          <t>雙醬鮭魚筆尖麵</t>
+          <t>一風堂橫濱家系拉麵</t>
         </is>
       </c>
       <c r="G7" s="39" t="n"/>
       <c r="H7" s="21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7" t="n"/>
       <c r="J7" s="7" t="n"/>
@@ -1117,12 +1117,12 @@
       <c r="A8" s="40" t="n"/>
       <c r="B8" s="25" t="inlineStr">
         <is>
-          <t>緹魚鮮蝦青醬松子義大利麵</t>
+          <t>IPPUDO_Spicy _TanTan</t>
         </is>
       </c>
       <c r="C8" s="39" t="n"/>
       <c r="D8" s="21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="40" t="n"/>
       <c r="F8" s="25" t="inlineStr">
@@ -1157,23 +1157,17 @@
       <c r="A9" s="40" t="n"/>
       <c r="B9" s="25" t="inlineStr">
         <is>
-          <t>雙醬鮭魚筆尖麵</t>
+          <t>燕三条 Se-Abura</t>
         </is>
       </c>
       <c r="C9" s="39" t="n"/>
       <c r="D9" s="21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="40" t="n"/>
-      <c r="F9" s="25" t="inlineStr">
-        <is>
-          <t>IPPUDO_Plant-Base_Ramen</t>
-        </is>
-      </c>
+      <c r="F9" s="25" t="n"/>
       <c r="G9" s="39" t="n"/>
-      <c r="H9" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="H9" s="21" t="n"/>
       <c r="I9" s="7" t="n"/>
       <c r="J9" s="7" t="n"/>
       <c r="K9" s="7" t="n"/>
@@ -1264,7 +1258,7 @@
         </is>
       </c>
       <c r="D12" s="21" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E12" s="24" t="inlineStr">
         <is>
@@ -1453,26 +1447,26 @@
       </c>
       <c r="B17" s="25" t="inlineStr">
         <is>
-          <t>IPPUDO_Spicy _TanTan</t>
+          <t>一風堂博多とんこつラーメン</t>
         </is>
       </c>
       <c r="C17" s="39" t="n"/>
       <c r="D17" s="21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E17" s="24" t="inlineStr">
         <is>
-          <t>夾腳拖的家-479</t>
+          <t>捷運西門站B1-307 LEFT</t>
         </is>
       </c>
       <c r="F17" s="25" t="inlineStr">
         <is>
-          <t>一風堂博多とんこつラーメン</t>
+          <t>雙醬鮭魚筆尖麵</t>
         </is>
       </c>
       <c r="G17" s="39" t="n"/>
       <c r="H17" s="21" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I17" s="7" t="n"/>
       <c r="J17" s="7" t="n"/>
@@ -1497,12 +1491,12 @@
       <c r="A18" s="40" t="n"/>
       <c r="B18" s="25" t="inlineStr">
         <is>
-          <t>一風堂博多とんこつラーメン</t>
+          <t>IPPUDO_Spicy _TanTan</t>
         </is>
       </c>
       <c r="C18" s="39" t="n"/>
       <c r="D18" s="21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E18" s="40" t="n"/>
       <c r="F18" s="25" t="inlineStr">
@@ -1512,7 +1506,7 @@
       </c>
       <c r="G18" s="39" t="n"/>
       <c r="H18" s="21" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7" t="n"/>
       <c r="J18" s="7" t="n"/>
@@ -1542,17 +1536,17 @@
       </c>
       <c r="C19" s="39" t="n"/>
       <c r="D19" s="21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E19" s="40" t="n"/>
       <c r="F19" s="25" t="inlineStr">
         <is>
-          <t>Ippudo Spicy Plant</t>
+          <t>燕三条 Se-Abura</t>
         </is>
       </c>
       <c r="G19" s="39" t="n"/>
       <c r="H19" s="21" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I19" s="7" t="n"/>
       <c r="J19" s="7" t="n"/>
@@ -1582,18 +1576,12 @@
       </c>
       <c r="C20" s="39" t="n"/>
       <c r="D20" s="21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="40" t="n"/>
-      <c r="F20" s="25" t="inlineStr">
-        <is>
-          <t>IPPUDO_Plant-Base_Ramen</t>
-        </is>
-      </c>
+      <c r="F20" s="25" t="n"/>
       <c r="G20" s="39" t="n"/>
-      <c r="H20" s="21" t="n">
-        <v>2</v>
-      </c>
+      <c r="H20" s="21" t="n"/>
       <c r="I20" s="7" t="n"/>
       <c r="J20" s="7" t="n"/>
       <c r="K20" s="7" t="n"/>
@@ -1622,18 +1610,12 @@
       </c>
       <c r="C21" s="39" t="n"/>
       <c r="D21" s="21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="40" t="n"/>
-      <c r="F21" s="25" t="inlineStr">
-        <is>
-          <t>小卷米粉</t>
-        </is>
-      </c>
+      <c r="F21" s="25" t="n"/>
       <c r="G21" s="39" t="n"/>
-      <c r="H21" s="21" t="n">
-        <v>2</v>
-      </c>
+      <c r="H21" s="21" t="n"/>
       <c r="I21" s="7" t="n"/>
       <c r="J21" s="7" t="n"/>
       <c r="K21" s="7" t="n"/>
@@ -1659,15 +1641,9 @@
       <c r="C22" s="39" t="n"/>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="40" t="n"/>
-      <c r="F22" s="25" t="inlineStr">
-        <is>
-          <t>燕三条 Se-Abura</t>
-        </is>
-      </c>
+      <c r="F22" s="25" t="n"/>
       <c r="G22" s="39" t="n"/>
-      <c r="H22" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="H22" s="21" t="n"/>
       <c r="I22" s="7" t="n"/>
       <c r="J22" s="7" t="n"/>
       <c r="K22" s="7" t="n"/>
@@ -1693,15 +1669,9 @@
       <c r="C23" s="39" t="n"/>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="40" t="n"/>
-      <c r="F23" s="25" t="inlineStr">
-        <is>
-          <t>雙醬鮭魚筆尖麵</t>
-        </is>
-      </c>
+      <c r="F23" s="25" t="n"/>
       <c r="G23" s="39" t="n"/>
-      <c r="H23" s="21" t="n">
-        <v>1</v>
-      </c>
+      <c r="H23" s="21" t="n"/>
       <c r="I23" s="7" t="n"/>
       <c r="J23" s="7" t="n"/>
       <c r="K23" s="7" t="n"/>
@@ -1780,7 +1750,7 @@
         </is>
       </c>
       <c r="H25" s="21" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I25" s="7" t="n"/>
       <c r="J25" s="7" t="n"/>
